--- a/doc/java_memory.xlsx
+++ b/doc/java_memory.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3931F627-B673-CB43-B1D4-7B135D1002CE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77BF29B-D0BB-5E40-9F40-C9A90A7D3808}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2780" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{EE9AEC80-B3D9-5D49-A4FB-6D7D1582B117}"/>
+    <workbookView xWindow="28800" yWindow="-2780" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{EE9AEC80-B3D9-5D49-A4FB-6D7D1582B117}"/>
   </bookViews>
   <sheets>
     <sheet name="Java 内存模型" sheetId="1" r:id="rId1"/>
     <sheet name="RuntimeDataAreaDemo.java -&gt; tes" sheetId="2" r:id="rId2"/>
+    <sheet name="TestString2-&gt;test()" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>运行时常量池</t>
   </si>
@@ -393,6 +394,39 @@
   </si>
   <si>
     <t>0x0005</t>
+  </si>
+  <si>
+    <t>"abc"</t>
+  </si>
+  <si>
+    <t>str1</t>
+  </si>
+  <si>
+    <t>str2</t>
+  </si>
+  <si>
+    <t>"ab"</t>
+  </si>
+  <si>
+    <t>"c"</t>
+  </si>
+  <si>
+    <t>str3</t>
+  </si>
+  <si>
+    <t>0x1000</t>
+  </si>
+  <si>
+    <t>0x1004</t>
+  </si>
+  <si>
+    <t>0x0010</t>
+  </si>
+  <si>
+    <t>0x0014</t>
+  </si>
+  <si>
+    <t>-&gt; abc</t>
   </si>
 </sst>
 </file>
@@ -801,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1032,6 +1066,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,6 +2230,440 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEDE78A-1EC1-E841-BE58-DC4D23DE7088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2324100" y="4902200"/>
+          <a:ext cx="4559300" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6502A14-9CA7-B14E-AF8A-7D7013C93A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2311400" y="2387600"/>
+          <a:ext cx="3606800" cy="3949700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F663A8B2-717C-6B45-93AD-5E90C90E5A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6464300" y="2374900"/>
+          <a:ext cx="1676400" cy="2489200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1392A8F-E0B3-674B-BDBF-6E33B6AF65B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2070100" y="5067300"/>
+          <a:ext cx="5168900" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D165B3EF-8B2C-F249-83F2-387D71E29864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6375400" y="2794000"/>
+          <a:ext cx="1587500" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Double Bracket 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A41029-DAFD-3E4E-A241-55B1FF84AF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="2527300"/>
+          <a:ext cx="584200" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracketPair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21F102B-E4AE-DE4C-B3C0-A92803DF767D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6565900" y="2374900"/>
+          <a:ext cx="1384300" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9958FC0-D507-2147-8D32-3848743EF9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6362700" y="2362200"/>
+          <a:ext cx="1689100" cy="2717800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3730,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4175203-3506-4C43-BA73-F5FEF8C710AC}">
   <dimension ref="C26:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4311,4 +4789,498 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942967D4-1223-2F4A-B092-299AED6C3185}">
+  <dimension ref="B3:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="70"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="71"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="71"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="71"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="71"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="79"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="71"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="71"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="71"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="71"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="71"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="71"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="71"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="71"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="71"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="71"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="71"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="71"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="71"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="71"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="71"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="71"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="61"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="71"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="61"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="71"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="61"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="71"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="71"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="71"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="71"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="71"/>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="72"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/java_memory.xlsx
+++ b/doc/java_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77BF29B-D0BB-5E40-9F40-C9A90A7D3808}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB119E-5E0F-E344-B85D-B04E918FDD0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-2780" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{EE9AEC80-B3D9-5D49-A4FB-6D7D1582B117}"/>
   </bookViews>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>运行时常量池</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>-&gt; abc</t>
+  </si>
+  <si>
+    <t>TestString2-&gt;test()</t>
   </si>
 </sst>
 </file>
@@ -4796,14 +4799,14 @@
   <dimension ref="B3:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">

--- a/doc/java_memory.xlsx
+++ b/doc/java_memory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB119E-5E0F-E344-B85D-B04E918FDD0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A743BC5-4BDB-914D-BBEA-0BDE94624AED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2780" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{EE9AEC80-B3D9-5D49-A4FB-6D7D1582B117}"/>
+    <workbookView xWindow="28800" yWindow="-2780" windowWidth="38400" windowHeight="23540" xr2:uid="{EE9AEC80-B3D9-5D49-A4FB-6D7D1582B117}"/>
   </bookViews>
   <sheets>
     <sheet name="Java 内存模型" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1</t>
+          <t>1 newed</t>
         </r>
         <r>
           <rPr>
@@ -59,16 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">new </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>出来的对象</t>
+          <t>对象</t>
         </r>
         <r>
           <rPr>
@@ -105,7 +96,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>数值</t>
+          <t>数组</t>
         </r>
       </text>
     </comment>
@@ -955,6 +946,109 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,109 +1070,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2966,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376E5A3C-E206-8247-A603-97CD72934A23}">
   <dimension ref="B3:W122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3007,16 +2998,16 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="92"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3027,16 +3018,16 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:5" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -3053,10 +3044,10 @@
     </row>
     <row r="16" spans="2:5" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3067,16 +3058,16 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="15"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
@@ -3217,11 +3208,11 @@
     </row>
     <row r="28" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35"/>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
       <c r="F28" s="36"/>
       <c r="K28" s="40"/>
       <c r="L28" s="41"/>
@@ -3255,11 +3246,11 @@
     </row>
     <row r="30" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35"/>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="36"/>
       <c r="K30" s="40"/>
       <c r="L30" s="41"/>
@@ -3438,62 +3429,62 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
       <c r="N40" s="40"/>
     </row>
     <row r="41" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="48"/>
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="48"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
       <c r="N41" s="40"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="48"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="48"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
       <c r="N42" s="40"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="48"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
       <c r="G43" s="48"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
       <c r="N43" s="40"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="48"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="48"/>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
@@ -3532,12 +3523,12 @@
     </row>
     <row r="47" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="48"/>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="48"/>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
@@ -3548,26 +3539,26 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="48"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
       <c r="G48" s="48"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="48"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
       <c r="G49" s="48"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="48"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
       <c r="G50" s="48"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
@@ -3588,12 +3579,12 @@
     </row>
     <row r="53" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B53" s="48"/>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
       <c r="G53" s="48"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
@@ -3606,36 +3597,36 @@
     </row>
     <row r="55" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="48"/>
-      <c r="C55" s="114" t="s">
+      <c r="C55" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
       <c r="G55" s="48"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="48"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="48"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="48"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="48"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="48"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="48"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
@@ -3691,20 +3682,20 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="23"/>
-      <c r="C66" s="117" t="s">
+      <c r="C66" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="119"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="116"/>
       <c r="G66" s="25"/>
     </row>
     <row r="67" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="23"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="121"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="122"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="119"/>
       <c r="G67" s="25"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
@@ -3725,20 +3716,20 @@
     </row>
     <row r="70" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="23"/>
-      <c r="C70" s="117" t="s">
+      <c r="C70" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="123"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="124"/>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="121"/>
       <c r="G70" s="25"/>
     </row>
     <row r="71" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="23"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="127"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="124"/>
       <c r="G71" s="25"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
@@ -3759,20 +3750,20 @@
     </row>
     <row r="74" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="23"/>
-      <c r="C74" s="117" t="s">
+      <c r="C74" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="124"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="121"/>
       <c r="G74" s="25"/>
     </row>
     <row r="75" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="23"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="126"/>
-      <c r="E75" s="126"/>
-      <c r="F75" s="127"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="124"/>
       <c r="G75" s="25"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
@@ -3793,20 +3784,20 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="23"/>
-      <c r="C78" s="117" t="s">
+      <c r="C78" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="124"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="121"/>
       <c r="G78" s="25"/>
     </row>
     <row r="79" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="23"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="127"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="124"/>
       <c r="G79" s="25"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
@@ -3877,58 +3868,58 @@
     </row>
     <row r="94" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
-      <c r="C94" s="98" t="s">
+      <c r="C94" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="99"/>
-      <c r="E94" s="99"/>
-      <c r="F94" s="100"/>
+      <c r="D94" s="96"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="97"/>
       <c r="G94" s="5"/>
-      <c r="H94" s="113" t="s">
+      <c r="H94" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="113"/>
-      <c r="J94" s="113"/>
-      <c r="K94" s="113"/>
+      <c r="I94" s="110"/>
+      <c r="J94" s="110"/>
+      <c r="K94" s="110"/>
       <c r="L94" s="6"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="102"/>
-      <c r="E95" s="102"/>
-      <c r="F95" s="103"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="100"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="113"/>
-      <c r="I95" s="113"/>
-      <c r="J95" s="113"/>
-      <c r="K95" s="113"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="110"/>
+      <c r="J95" s="110"/>
+      <c r="K95" s="110"/>
       <c r="L95" s="6"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
-      <c r="C96" s="101"/>
-      <c r="D96" s="102"/>
-      <c r="E96" s="102"/>
-      <c r="F96" s="103"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="100"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="113"/>
-      <c r="I96" s="113"/>
-      <c r="J96" s="113"/>
-      <c r="K96" s="113"/>
+      <c r="H96" s="110"/>
+      <c r="I96" s="110"/>
+      <c r="J96" s="110"/>
+      <c r="K96" s="110"/>
       <c r="L96" s="6"/>
     </row>
     <row r="97" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
-      <c r="C97" s="104"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="106"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="102"/>
+      <c r="F97" s="103"/>
       <c r="G97" s="5"/>
-      <c r="H97" s="113"/>
-      <c r="I97" s="113"/>
-      <c r="J97" s="113"/>
-      <c r="K97" s="113"/>
+      <c r="H97" s="110"/>
+      <c r="I97" s="110"/>
+      <c r="J97" s="110"/>
+      <c r="K97" s="110"/>
       <c r="L97" s="6"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
@@ -3972,45 +3963,45 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
-      <c r="C101" s="96" t="s">
+      <c r="C101" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="96"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="131"/>
+      <c r="F101" s="131"/>
       <c r="G101" s="5"/>
-      <c r="H101" s="97" t="s">
+      <c r="H101" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="97"/>
-      <c r="J101" s="97"/>
-      <c r="K101" s="97"/>
+      <c r="I101" s="94"/>
+      <c r="J101" s="94"/>
+      <c r="K101" s="94"/>
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="96"/>
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
+      <c r="F102" s="131"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="97"/>
-      <c r="I102" s="97"/>
-      <c r="J102" s="97"/>
-      <c r="K102" s="97"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="94"/>
+      <c r="K102" s="94"/>
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="96"/>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="131"/>
+      <c r="F103" s="131"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="97"/>
-      <c r="J103" s="97"/>
-      <c r="K103" s="97"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
@@ -4034,32 +4025,32 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
-      <c r="C106" s="95" t="s">
+      <c r="C106" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="130"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
-      <c r="C107" s="95"/>
-      <c r="D107" s="95"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
+      <c r="C107" s="130"/>
+      <c r="D107" s="130"/>
+      <c r="E107" s="130"/>
+      <c r="F107" s="130"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="L107" s="6"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="95"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
+      <c r="C108" s="130"/>
+      <c r="D108" s="130"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="130"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="L108" s="6"/>
@@ -4179,6 +4170,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C106:F108"/>
+    <mergeCell ref="C101:F103"/>
     <mergeCell ref="H101:K103"/>
     <mergeCell ref="C94:F97"/>
     <mergeCell ref="C28:E28"/>
@@ -4193,12 +4190,6 @@
     <mergeCell ref="C70:F71"/>
     <mergeCell ref="C74:F75"/>
     <mergeCell ref="C78:F79"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C106:F108"/>
-    <mergeCell ref="C101:F103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4798,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942967D4-1223-2F4A-B092-299AED6C3185}">
   <dimension ref="B3:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4891,7 +4882,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="76"/>
       <c r="G9" s="77"/>
-      <c r="H9" s="130"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="79"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4934,7 +4925,7 @@
       <c r="G12" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="128" t="s">
+      <c r="H12" s="90" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="56"/>
@@ -4951,7 +4942,7 @@
       <c r="G13" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="91" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="56"/>
@@ -4968,11 +4959,11 @@
       <c r="G14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="91" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="56"/>
-      <c r="J14" s="131" t="s">
+      <c r="J14" s="93" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="5"/>
